--- a/public/assets/templates/allowance.xlsx
+++ b/public/assets/templates/allowance.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Tipe</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Nama Tunjangan</t>
   </si>
@@ -35,10 +32,7 @@
     <t>Nominal</t>
   </si>
   <si>
-    <t>Kena Pajak</t>
-  </si>
-  <si>
-    <t>Pajak Final</t>
+    <t>Employee id</t>
   </si>
 </sst>
 </file>
@@ -356,35 +350,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/public/assets/templates/allowance.xlsx
+++ b/public/assets/templates/allowance.xlsx
@@ -32,7 +32,7 @@
     <t>Nominal</t>
   </si>
   <si>
-    <t>Employee id</t>
+    <t>Employee Id</t>
   </si>
 </sst>
 </file>
@@ -68,8 +68,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -353,12 +354,12 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -366,7 +367,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
@@ -378,5 +379,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/assets/templates/allowance.xlsx
+++ b/public/assets/templates/allowance.xlsx
@@ -32,7 +32,7 @@
     <t>Nominal</t>
   </si>
   <si>
-    <t>Employee Id</t>
+    <t>NIP</t>
   </si>
 </sst>
 </file>
@@ -354,7 +354,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
